--- a/Reports/CHP-study/chp-equips.xlsx
+++ b/Reports/CHP-study/chp-equips.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CHP\Reports\CHP-study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C941775-1CBF-4B34-8C2D-FEA0DC00DCC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A51CD7AB-4D21-42F6-AA62-68A9C4725039}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="41">
   <si>
     <t>SL</t>
   </si>
@@ -142,6 +142,12 @@
   </si>
   <si>
     <t>CHP MAJOR EQUIPMENTS</t>
+  </si>
+  <si>
+    <t>NAKODA</t>
+  </si>
+  <si>
+    <t>ADVANCE SYSTEMS</t>
   </si>
 </sst>
 </file>
@@ -538,8 +544,8 @@
   </sheetPr>
   <dimension ref="B2:F24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -638,7 +644,9 @@
         <v>8</v>
       </c>
       <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="F7" s="2">
         <v>2016</v>
       </c>
@@ -651,7 +659,9 @@
         <v>9</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="F8" s="2">
         <v>2016</v>
       </c>
@@ -915,7 +925,9 @@
         <v>21</v>
       </c>
       <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
+      <c r="E24" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="F24" s="2">
         <v>2015</v>
       </c>

--- a/Reports/CHP-study/chp-equips.xlsx
+++ b/Reports/CHP-study/chp-equips.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CHP\Reports\CHP-study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A51CD7AB-4D21-42F6-AA62-68A9C4725039}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{916DA748-3DBE-432A-AE16-B4C11A04AB1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -544,8 +544,8 @@
   </sheetPr>
   <dimension ref="B2:F24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
